--- a/src/Dataset/EXCEL3.xlsx
+++ b/src/Dataset/EXCEL3.xlsx
@@ -27,9 +27,6 @@
     <t>Odds</t>
   </si>
   <si>
-    <t>Benefit</t>
-  </si>
-  <si>
     <t>Express</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Dortmund-Hannover 2 team win</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,12 +436,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>75</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>150</v>
@@ -464,12 +464,12 @@
         <v>2.1</v>
       </c>
       <c r="D3" s="3">
-        <v>315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>150</v>
@@ -492,12 +492,12 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D5" s="3">
-        <v>1305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -506,12 +506,12 @@
         <v>1.4</v>
       </c>
       <c r="D6" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
@@ -520,12 +520,12 @@
         <v>5.6</v>
       </c>
       <c r="D7" s="3">
-        <v>1120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>150</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>80</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>56</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>100</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>4700</v>
@@ -632,7 +632,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D15" s="3">
-        <v>45590</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
